--- a/Data/mobility_sample.xlsx
+++ b/Data/mobility_sample.xlsx
@@ -14,7 +14,11 @@
   <sheets>
     <sheet name="Sample_population" sheetId="1" r:id="rId1"/>
     <sheet name="Sample_activities" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sample_activities!$L$1:$L$342</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="487">
   <si>
     <t>Hhid</t>
   </si>
@@ -2401,10 +2405,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L342"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="M336" sqref="M336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2452,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2599,7 +2604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2675,7 +2680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2751,7 +2756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2903,7 +2908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3017,7 +3022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3055,7 +3060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3131,7 +3136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3245,7 +3250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3321,7 +3326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3359,7 +3364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3397,7 +3402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>501</v>
       </c>
@@ -3435,7 +3440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>501</v>
       </c>
@@ -3473,7 +3478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>501</v>
       </c>
@@ -3511,7 +3516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>501</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>501</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>501</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>501</v>
       </c>
@@ -3663,7 +3668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>501</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>501</v>
       </c>
@@ -3739,7 +3744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>501</v>
       </c>
@@ -3777,7 +3782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>501</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>501</v>
       </c>
@@ -3853,7 +3858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>501</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>501</v>
       </c>
@@ -3929,7 +3934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>501</v>
       </c>
@@ -3967,7 +3972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>501</v>
       </c>
@@ -4005,7 +4010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>501</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>501</v>
       </c>
@@ -4081,7 +4086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>501</v>
       </c>
@@ -4119,7 +4124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1001</v>
       </c>
@@ -4157,7 +4162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1001</v>
       </c>
@@ -4195,7 +4200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1001</v>
       </c>
@@ -4233,7 +4238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1001</v>
       </c>
@@ -4271,7 +4276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1001</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1001</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1001</v>
       </c>
@@ -4385,7 +4390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1001</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1001</v>
       </c>
@@ -4461,7 +4466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1001</v>
       </c>
@@ -4499,7 +4504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1001</v>
       </c>
@@ -4537,7 +4542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1001</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1001</v>
       </c>
@@ -4613,7 +4618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1001</v>
       </c>
@@ -4651,7 +4656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1001</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1001</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1001</v>
       </c>
@@ -4765,7 +4770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -4803,7 +4808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1001</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1001</v>
       </c>
@@ -4879,7 +4884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1001</v>
       </c>
@@ -4917,7 +4922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1001</v>
       </c>
@@ -4955,7 +4960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1001</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1001</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1001</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1501</v>
       </c>
@@ -5107,7 +5112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1501</v>
       </c>
@@ -5145,7 +5150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1501</v>
       </c>
@@ -5183,7 +5188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1501</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1501</v>
       </c>
@@ -5259,7 +5264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1501</v>
       </c>
@@ -5297,7 +5302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1501</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1501</v>
       </c>
@@ -5373,7 +5378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1501</v>
       </c>
@@ -5411,7 +5416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1501</v>
       </c>
@@ -5449,7 +5454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1501</v>
       </c>
@@ -5487,7 +5492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1501</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1501</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1501</v>
       </c>
@@ -5601,7 +5606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1501</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1501</v>
       </c>
@@ -5677,7 +5682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1501</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1501</v>
       </c>
@@ -5753,7 +5758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1501</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1501</v>
       </c>
@@ -5829,7 +5834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1501</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1501</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1501</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1501</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1501</v>
       </c>
@@ -6019,7 +6024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1501</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1501</v>
       </c>
@@ -6095,7 +6100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1501</v>
       </c>
@@ -6133,7 +6138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1501</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1501</v>
       </c>
@@ -6209,7 +6214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2001</v>
       </c>
@@ -6247,7 +6252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2001</v>
       </c>
@@ -6285,7 +6290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2001</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2001</v>
       </c>
@@ -6361,7 +6366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2001</v>
       </c>
@@ -6399,7 +6404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2001</v>
       </c>
@@ -6437,7 +6442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2001</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2001</v>
       </c>
@@ -6513,7 +6518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2001</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2001</v>
       </c>
@@ -6589,7 +6594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2001</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2001</v>
       </c>
@@ -6665,7 +6670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2001</v>
       </c>
@@ -6703,7 +6708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2001</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2001</v>
       </c>
@@ -6779,7 +6784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2001</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2001</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2001</v>
       </c>
@@ -7007,7 +7012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2501</v>
       </c>
@@ -7045,7 +7050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2501</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2501</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2501</v>
       </c>
@@ -7159,7 +7164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2501</v>
       </c>
@@ -7197,7 +7202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2501</v>
       </c>
@@ -7235,7 +7240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2501</v>
       </c>
@@ -7273,7 +7278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2501</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2501</v>
       </c>
@@ -7349,7 +7354,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2501</v>
       </c>
@@ -7387,7 +7392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2501</v>
       </c>
@@ -7425,7 +7430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2501</v>
       </c>
@@ -7463,7 +7468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2501</v>
       </c>
@@ -7501,7 +7506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2501</v>
       </c>
@@ -7539,7 +7544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2501</v>
       </c>
@@ -7577,7 +7582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2501</v>
       </c>
@@ -7615,7 +7620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2501</v>
       </c>
@@ -7653,7 +7658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2501</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2501</v>
       </c>
@@ -7729,7 +7734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2501</v>
       </c>
@@ -7767,7 +7772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2501</v>
       </c>
@@ -7805,7 +7810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2501</v>
       </c>
@@ -7843,7 +7848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2501</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3001</v>
       </c>
@@ -7919,7 +7924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3001</v>
       </c>
@@ -7957,7 +7962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3001</v>
       </c>
@@ -7995,7 +8000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3001</v>
       </c>
@@ -8033,7 +8038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3001</v>
       </c>
@@ -8071,7 +8076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3001</v>
       </c>
@@ -8109,7 +8114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3001</v>
       </c>
@@ -8413,7 +8418,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3001</v>
       </c>
@@ -8451,7 +8456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3001</v>
       </c>
@@ -8489,7 +8494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3001</v>
       </c>
@@ -8527,7 +8532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3001</v>
       </c>
@@ -8565,7 +8570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3001</v>
       </c>
@@ -8603,7 +8608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3001</v>
       </c>
@@ -8641,7 +8646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3001</v>
       </c>
@@ -8679,7 +8684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3001</v>
       </c>
@@ -8717,7 +8722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3001</v>
       </c>
@@ -8755,7 +8760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3001</v>
       </c>
@@ -8793,7 +8798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3001</v>
       </c>
@@ -8831,7 +8836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3001</v>
       </c>
@@ -8945,7 +8950,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3001</v>
       </c>
@@ -8983,7 +8988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3001</v>
       </c>
@@ -9021,7 +9026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3501</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3501</v>
       </c>
@@ -9211,7 +9216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3501</v>
       </c>
@@ -9249,7 +9254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3501</v>
       </c>
@@ -9287,7 +9292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3501</v>
       </c>
@@ -9401,7 +9406,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3501</v>
       </c>
@@ -9439,7 +9444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3501</v>
       </c>
@@ -9477,7 +9482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3501</v>
       </c>
@@ -9515,7 +9520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3501</v>
       </c>
@@ -9553,7 +9558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3501</v>
       </c>
@@ -9591,7 +9596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3501</v>
       </c>
@@ -9629,7 +9634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3501</v>
       </c>
@@ -9667,7 +9672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3501</v>
       </c>
@@ -9705,7 +9710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3501</v>
       </c>
@@ -9743,7 +9748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3501</v>
       </c>
@@ -9781,7 +9786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3501</v>
       </c>
@@ -9819,7 +9824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3501</v>
       </c>
@@ -9857,7 +9862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3501</v>
       </c>
@@ -9895,7 +9900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3501</v>
       </c>
@@ -9933,7 +9938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3501</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3501</v>
       </c>
@@ -10009,7 +10014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3501</v>
       </c>
@@ -10047,7 +10052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3501</v>
       </c>
@@ -10085,7 +10090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4001</v>
       </c>
@@ -10123,7 +10128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4001</v>
       </c>
@@ -10161,7 +10166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4001</v>
       </c>
@@ -10199,7 +10204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4001</v>
       </c>
@@ -10237,7 +10242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4001</v>
       </c>
@@ -10275,7 +10280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4001</v>
       </c>
@@ -10313,7 +10318,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4001</v>
       </c>
@@ -10351,7 +10356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4001</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4001</v>
       </c>
@@ -10427,7 +10432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4001</v>
       </c>
@@ -10465,7 +10470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4001</v>
       </c>
@@ -10503,7 +10508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4001</v>
       </c>
@@ -10541,7 +10546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4001</v>
       </c>
@@ -10579,7 +10584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4001</v>
       </c>
@@ -10617,7 +10622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4001</v>
       </c>
@@ -10655,7 +10660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4001</v>
       </c>
@@ -10693,7 +10698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4001</v>
       </c>
@@ -10731,7 +10736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4001</v>
       </c>
@@ -10769,7 +10774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4001</v>
       </c>
@@ -10807,7 +10812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4001</v>
       </c>
@@ -10845,7 +10850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4001</v>
       </c>
@@ -10883,7 +10888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4001</v>
       </c>
@@ -10921,7 +10926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4001</v>
       </c>
@@ -11035,7 +11040,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4001</v>
       </c>
@@ -11149,7 +11154,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4001</v>
       </c>
@@ -11187,7 +11192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4001</v>
       </c>
@@ -11225,7 +11230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4001</v>
       </c>
@@ -11263,7 +11268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4001</v>
       </c>
@@ -11301,7 +11306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4001</v>
       </c>
@@ -11339,7 +11344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4001</v>
       </c>
@@ -11377,7 +11382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4001</v>
       </c>
@@ -11415,7 +11420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4001</v>
       </c>
@@ -11453,7 +11458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4001</v>
       </c>
@@ -11491,7 +11496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4001</v>
       </c>
@@ -11529,7 +11534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4001</v>
       </c>
@@ -11567,7 +11572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4001</v>
       </c>
@@ -11605,7 +11610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4001</v>
       </c>
@@ -11643,7 +11648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4001</v>
       </c>
@@ -11681,7 +11686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4501</v>
       </c>
@@ -11909,7 +11914,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4501</v>
       </c>
@@ -11947,7 +11952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4501</v>
       </c>
@@ -11985,7 +11990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4501</v>
       </c>
@@ -12023,7 +12028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4501</v>
       </c>
@@ -12061,7 +12066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4501</v>
       </c>
@@ -12099,7 +12104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4501</v>
       </c>
@@ -12137,7 +12142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4501</v>
       </c>
@@ -12175,7 +12180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4501</v>
       </c>
@@ -12213,7 +12218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4501</v>
       </c>
@@ -12365,7 +12370,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4501</v>
       </c>
@@ -12479,7 +12484,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4501</v>
       </c>
@@ -12517,7 +12522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4501</v>
       </c>
@@ -12555,7 +12560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4501</v>
       </c>
@@ -12593,7 +12598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4501</v>
       </c>
@@ -12631,7 +12636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4501</v>
       </c>
@@ -12669,7 +12674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4501</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4501</v>
       </c>
@@ -12745,7 +12750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4501</v>
       </c>
@@ -12783,7 +12788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4501</v>
       </c>
@@ -12821,7 +12826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4501</v>
       </c>
@@ -12859,7 +12864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4501</v>
       </c>
@@ -12897,7 +12902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4501</v>
       </c>
@@ -12935,7 +12940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4501</v>
       </c>
@@ -12973,7 +12978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4501</v>
       </c>
@@ -13011,7 +13016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4501</v>
       </c>
@@ -13049,7 +13054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4501</v>
       </c>
@@ -13087,7 +13092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4501</v>
       </c>
@@ -13125,7 +13130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>4501</v>
       </c>
@@ -13163,7 +13168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4501</v>
       </c>
@@ -13201,7 +13206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4501</v>
       </c>
@@ -13239,7 +13244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>5001</v>
       </c>
@@ -13277,7 +13282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>5001</v>
       </c>
@@ -13315,7 +13320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>5001</v>
       </c>
@@ -13353,7 +13358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>5001</v>
       </c>
@@ -13391,7 +13396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>5001</v>
       </c>
@@ -13429,7 +13434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>5001</v>
       </c>
@@ -13467,7 +13472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>5001</v>
       </c>
@@ -13505,7 +13510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>5001</v>
       </c>
@@ -13657,7 +13662,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>5001</v>
       </c>
@@ -13695,7 +13700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5001</v>
       </c>
@@ -13733,7 +13738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>5001</v>
       </c>
@@ -13771,7 +13776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5001</v>
       </c>
@@ -13809,7 +13814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>5001</v>
       </c>
@@ -13847,7 +13852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5001</v>
       </c>
@@ -13885,7 +13890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5001</v>
       </c>
@@ -13923,7 +13928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5001</v>
       </c>
@@ -14037,7 +14042,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>5001</v>
       </c>
@@ -14075,7 +14080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>5001</v>
       </c>
@@ -14189,7 +14194,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5001</v>
       </c>
@@ -14455,7 +14460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5001</v>
       </c>
@@ -14493,7 +14498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>5001</v>
       </c>
@@ -14531,7 +14536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>5001</v>
       </c>
@@ -14569,7 +14574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>5001</v>
       </c>
@@ -14607,7 +14612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>5001</v>
       </c>
@@ -14645,7 +14650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5001</v>
       </c>
@@ -14683,7 +14688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>5001</v>
       </c>
@@ -14721,7 +14726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5001</v>
       </c>
@@ -14759,7 +14764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>5001</v>
       </c>
@@ -14797,7 +14802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>5001</v>
       </c>
@@ -14835,7 +14840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>5001</v>
       </c>
@@ -14873,7 +14878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>5001</v>
       </c>
@@ -14911,7 +14916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5001</v>
       </c>
@@ -14949,7 +14954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>5001</v>
       </c>
@@ -14987,7 +14992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>5001</v>
       </c>
@@ -15025,7 +15030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>5001</v>
       </c>
@@ -15063,7 +15068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>5001</v>
       </c>
@@ -15101,7 +15106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>5001</v>
       </c>
@@ -15215,7 +15220,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5001</v>
       </c>
@@ -15253,7 +15258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5001</v>
       </c>
@@ -15291,7 +15296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>5001</v>
       </c>
@@ -15329,7 +15334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>5001</v>
       </c>
@@ -15402,6 +15407,1852 @@
         <v>75</v>
       </c>
       <c r="L342" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="L1:L342">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Car"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L48" sqref="A2:L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1" t="s">
+        <v>485</v>
+      </c>
+      <c r="L1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2">
+        <v>5629</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>5629</v>
+      </c>
+      <c r="F2">
+        <v>7475</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>5629</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>7475</v>
+      </c>
+      <c r="F3">
+        <v>7475</v>
+      </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>5629</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>7475</v>
+      </c>
+      <c r="F4">
+        <v>5629</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3001</v>
+      </c>
+      <c r="B5">
+        <v>5629</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5651</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" t="s">
+        <v>248</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3001</v>
+      </c>
+      <c r="B6">
+        <v>5629</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>5651</v>
+      </c>
+      <c r="F6">
+        <v>5652</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3001</v>
+      </c>
+      <c r="B7">
+        <v>5629</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>5652</v>
+      </c>
+      <c r="F7">
+        <v>5616</v>
+      </c>
+      <c r="G7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3001</v>
+      </c>
+      <c r="B8">
+        <v>5629</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5616</v>
+      </c>
+      <c r="F8">
+        <v>5701</v>
+      </c>
+      <c r="G8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3001</v>
+      </c>
+      <c r="B9">
+        <v>5629</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>5701</v>
+      </c>
+      <c r="F9">
+        <v>5507</v>
+      </c>
+      <c r="G9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3001</v>
+      </c>
+      <c r="B10">
+        <v>5629</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>5507</v>
+      </c>
+      <c r="F10">
+        <v>5507</v>
+      </c>
+      <c r="G10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3001</v>
+      </c>
+      <c r="B11">
+        <v>5629</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>5507</v>
+      </c>
+      <c r="F11">
+        <v>5629</v>
+      </c>
+      <c r="G11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>258</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12">
+        <v>5629</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>5629</v>
+      </c>
+      <c r="F12">
+        <v>6461</v>
+      </c>
+      <c r="G12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J12" t="s">
+        <v>275</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3001</v>
+      </c>
+      <c r="B13">
+        <v>5629</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>6461</v>
+      </c>
+      <c r="F13">
+        <v>5629</v>
+      </c>
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>276</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3501</v>
+      </c>
+      <c r="B14">
+        <v>5629</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5629</v>
+      </c>
+      <c r="F14">
+        <v>5642</v>
+      </c>
+      <c r="G14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>281</v>
+      </c>
+      <c r="J14" t="s">
+        <v>282</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3501</v>
+      </c>
+      <c r="B15">
+        <v>5629</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5642</v>
+      </c>
+      <c r="F15">
+        <v>5616</v>
+      </c>
+      <c r="G15" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J15" t="s">
+        <v>284</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3501</v>
+      </c>
+      <c r="B16">
+        <v>5629</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>5616</v>
+      </c>
+      <c r="F16">
+        <v>5629</v>
+      </c>
+      <c r="G16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>285</v>
+      </c>
+      <c r="J16" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3501</v>
+      </c>
+      <c r="B17">
+        <v>5629</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>5629</v>
+      </c>
+      <c r="F17">
+        <v>5151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3501</v>
+      </c>
+      <c r="B18">
+        <v>5629</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>5151</v>
+      </c>
+      <c r="F18">
+        <v>5629</v>
+      </c>
+      <c r="G18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4001</v>
+      </c>
+      <c r="B19">
+        <v>5629</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>5629</v>
+      </c>
+      <c r="F19">
+        <v>5616</v>
+      </c>
+      <c r="G19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" t="s">
+        <v>337</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4001</v>
+      </c>
+      <c r="B20">
+        <v>5629</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>5616</v>
+      </c>
+      <c r="F20">
+        <v>5629</v>
+      </c>
+      <c r="G20" t="s">
+        <v>337</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4001</v>
+      </c>
+      <c r="B21">
+        <v>5629</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5616</v>
+      </c>
+      <c r="G21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>340</v>
+      </c>
+      <c r="J21" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4001</v>
+      </c>
+      <c r="B22">
+        <v>5629</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>5616</v>
+      </c>
+      <c r="F22">
+        <v>5629</v>
+      </c>
+      <c r="G22" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>341</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4501</v>
+      </c>
+      <c r="B23">
+        <v>5629</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>5629</v>
+      </c>
+      <c r="F23">
+        <v>5652</v>
+      </c>
+      <c r="G23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>355</v>
+      </c>
+      <c r="J23" t="s">
+        <v>356</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4501</v>
+      </c>
+      <c r="B24">
+        <v>5629</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>5652</v>
+      </c>
+      <c r="F24">
+        <v>5652</v>
+      </c>
+      <c r="G24" t="s">
+        <v>356</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>357</v>
+      </c>
+      <c r="J24" t="s">
+        <v>358</v>
+      </c>
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4501</v>
+      </c>
+      <c r="B25">
+        <v>5629</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>5652</v>
+      </c>
+      <c r="F25">
+        <v>5652</v>
+      </c>
+      <c r="G25" t="s">
+        <v>358</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>359</v>
+      </c>
+      <c r="J25" t="s">
+        <v>360</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4501</v>
+      </c>
+      <c r="B26">
+        <v>5629</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>5652</v>
+      </c>
+      <c r="F26">
+        <v>5652</v>
+      </c>
+      <c r="G26" t="s">
+        <v>360</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" t="s">
+        <v>362</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4501</v>
+      </c>
+      <c r="B27">
+        <v>5629</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5652</v>
+      </c>
+      <c r="F27">
+        <v>5629</v>
+      </c>
+      <c r="G27" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>363</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4501</v>
+      </c>
+      <c r="B28">
+        <v>5629</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>5629</v>
+      </c>
+      <c r="F28">
+        <v>5629</v>
+      </c>
+      <c r="G28" t="s">
+        <v>369</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>370</v>
+      </c>
+      <c r="J28" t="s">
+        <v>371</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4501</v>
+      </c>
+      <c r="B29">
+        <v>5629</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>5629</v>
+      </c>
+      <c r="F29">
+        <v>5611</v>
+      </c>
+      <c r="G29" t="s">
+        <v>371</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4501</v>
+      </c>
+      <c r="B30">
+        <v>5629</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>5611</v>
+      </c>
+      <c r="F30">
+        <v>5629</v>
+      </c>
+      <c r="G30" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>373</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4501</v>
+      </c>
+      <c r="B31">
+        <v>5629</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>5629</v>
+      </c>
+      <c r="F31">
+        <v>5629</v>
+      </c>
+      <c r="G31" t="s">
+        <v>374</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>375</v>
+      </c>
+      <c r="J31" t="s">
+        <v>376</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4501</v>
+      </c>
+      <c r="B32">
+        <v>5629</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>5629</v>
+      </c>
+      <c r="F32">
+        <v>5629</v>
+      </c>
+      <c r="G32" t="s">
+        <v>376</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5001</v>
+      </c>
+      <c r="B33">
+        <v>5629</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>5629</v>
+      </c>
+      <c r="G33" t="s">
+        <v>408</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>409</v>
+      </c>
+      <c r="J33" t="s">
+        <v>410</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5001</v>
+      </c>
+      <c r="B34">
+        <v>5629</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>5629</v>
+      </c>
+      <c r="F34">
+        <v>5616</v>
+      </c>
+      <c r="G34" t="s">
+        <v>410</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>411</v>
+      </c>
+      <c r="J34" t="s">
+        <v>412</v>
+      </c>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5001</v>
+      </c>
+      <c r="B35">
+        <v>5629</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>5616</v>
+      </c>
+      <c r="F35">
+        <v>5629</v>
+      </c>
+      <c r="G35" t="s">
+        <v>412</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5001</v>
+      </c>
+      <c r="B36">
+        <v>5629</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>5629</v>
+      </c>
+      <c r="F36">
+        <v>5643</v>
+      </c>
+      <c r="G36" t="s">
+        <v>423</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" t="s">
+        <v>424</v>
+      </c>
+      <c r="K36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5001</v>
+      </c>
+      <c r="B37">
+        <v>5629</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>5643</v>
+      </c>
+      <c r="F37">
+        <v>5629</v>
+      </c>
+      <c r="G37" t="s">
+        <v>424</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>425</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5001</v>
+      </c>
+      <c r="B38">
+        <v>5629</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>5629</v>
+      </c>
+      <c r="F38">
+        <v>5629</v>
+      </c>
+      <c r="G38" t="s">
+        <v>426</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>427</v>
+      </c>
+      <c r="J38" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5001</v>
+      </c>
+      <c r="B39">
+        <v>5629</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>5629</v>
+      </c>
+      <c r="F39">
+        <v>5629</v>
+      </c>
+      <c r="G39" t="s">
+        <v>360</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>428</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5001</v>
+      </c>
+      <c r="B40">
+        <v>5629</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5629</v>
+      </c>
+      <c r="F40">
+        <v>5692</v>
+      </c>
+      <c r="G40" t="s">
+        <v>429</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>430</v>
+      </c>
+      <c r="J40" t="s">
+        <v>309</v>
+      </c>
+      <c r="K40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5001</v>
+      </c>
+      <c r="B41">
+        <v>5629</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5692</v>
+      </c>
+      <c r="F41">
+        <v>5629</v>
+      </c>
+      <c r="G41" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>431</v>
+      </c>
+      <c r="J41" t="s">
+        <v>432</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5001</v>
+      </c>
+      <c r="B42">
+        <v>5629</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>5629</v>
+      </c>
+      <c r="F42">
+        <v>5629</v>
+      </c>
+      <c r="G42" t="s">
+        <v>432</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>433</v>
+      </c>
+      <c r="J42" t="s">
+        <v>434</v>
+      </c>
+      <c r="K42" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5001</v>
+      </c>
+      <c r="B43">
+        <v>5629</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>5629</v>
+      </c>
+      <c r="F43">
+        <v>5629</v>
+      </c>
+      <c r="G43" t="s">
+        <v>434</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>435</v>
+      </c>
+      <c r="J43" t="s">
+        <v>436</v>
+      </c>
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5001</v>
+      </c>
+      <c r="B44">
+        <v>5629</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>5629</v>
+      </c>
+      <c r="F44">
+        <v>5612</v>
+      </c>
+      <c r="G44" t="s">
+        <v>436</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>437</v>
+      </c>
+      <c r="J44" t="s">
+        <v>438</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5001</v>
+      </c>
+      <c r="B45">
+        <v>5629</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>5612</v>
+      </c>
+      <c r="F45">
+        <v>5629</v>
+      </c>
+      <c r="G45" t="s">
+        <v>438</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>439</v>
+      </c>
+      <c r="J45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5001</v>
+      </c>
+      <c r="B46">
+        <v>5629</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
+      <c r="E46">
+        <v>5629</v>
+      </c>
+      <c r="F46">
+        <v>5629</v>
+      </c>
+      <c r="G46" t="s">
+        <v>464</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>465</v>
+      </c>
+      <c r="J46" t="s">
+        <v>466</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5001</v>
+      </c>
+      <c r="B47">
+        <v>5629</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <v>5629</v>
+      </c>
+      <c r="F47">
+        <v>5629</v>
+      </c>
+      <c r="G47" t="s">
+        <v>466</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>467</v>
+      </c>
+      <c r="J47" t="s">
+        <v>468</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5001</v>
+      </c>
+      <c r="B48">
+        <v>5629</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>34</v>
+      </c>
+      <c r="E48">
+        <v>5629</v>
+      </c>
+      <c r="F48">
+        <v>5706</v>
+      </c>
+      <c r="G48" t="s">
+        <v>473</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>474</v>
+      </c>
+      <c r="J48" t="s">
+        <v>475</v>
+      </c>
+      <c r="K48" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" t="s">
         <v>207</v>
       </c>
     </row>

--- a/Data/mobility_sample.xlsx
+++ b/Data/mobility_sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_population" sheetId="1" r:id="rId1"/>
@@ -1496,8 +1496,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1525,8 +1533,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1809,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
@@ -2406,10 +2415,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L342"/>
+  <dimension ref="A1:L343"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="M336" sqref="M336"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15408,6 +15417,12 @@
       </c>
       <c r="L342" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <f>COUNTA(A117:A342)/10</f>
+        <v>22.6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/mobility_sample.xlsx
+++ b/Data/mobility_sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s168027\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF7CD61-5790-4D7E-98E9-13336A49547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_population" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sample_activities!$L$1:$L$342</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1495,7 +1505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1538,7 +1548,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1815,11 +1825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,12 +2423,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
+    <sheetView topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="M316" sqref="M316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15420,13 +15430,10 @@
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <f>COUNTA(A117:A342)/10</f>
-        <v>22.6</v>
-      </c>
+      <c r="A343" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L342">
+  <autoFilter ref="L1:L342" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Car"/>
@@ -15438,11 +15445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L48" sqref="A2:L48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
